--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3795,10 +3795,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>87</v>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>78</v>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>86</v>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>86</v>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>PatientUpdate</t>
+    <t>PartialPatientUpdate</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -940,7 +940,7 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-name-use-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-name-use-value-set</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -1126,7 +1126,7 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-contact-point-system-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-contact-point-system-value-set</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -1181,7 +1181,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-contact-point-use-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-contact-point-use-value-set</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -2521,7 +2521,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.8515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="667">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>The Patient Profile is based upon the core FHIR Patient Resource</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2556,13 +2560,13 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>39</v>
@@ -2576,10 +2580,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2590,7 +2594,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -2599,19 +2603,19 @@
         <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2661,13 +2665,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -2693,10 +2697,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2707,7 +2711,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>39</v>
@@ -2716,16 +2720,16 @@
         <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2776,19 +2780,19 @@
         <v>39</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -2808,10 +2812,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2822,28 +2826,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2893,19 +2897,19 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -2925,10 +2929,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2939,7 +2943,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>39</v>
@@ -2951,16 +2955,16 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2986,13 +2990,13 @@
         <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>39</v>
@@ -3010,19 +3014,19 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -3042,21 +3046,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>39</v>
@@ -3068,16 +3072,16 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3127,22 +3131,22 @@
         <v>39</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>39</v>
@@ -3159,14 +3163,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3185,16 +3189,16 @@
         <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3244,7 +3248,7 @@
         <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -3259,7 +3263,7 @@
         <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>39</v>
@@ -3276,10 +3280,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3302,13 +3306,13 @@
         <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3347,17 +3351,17 @@
         <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -3369,7 +3373,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -3389,13 +3393,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>39</v>
@@ -3405,7 +3409,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>39</v>
@@ -3417,13 +3421,13 @@
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3474,7 +3478,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -3483,10 +3487,10 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -3506,13 +3510,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>39</v>
@@ -3522,7 +3526,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>39</v>
@@ -3534,16 +3538,16 @@
         <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3593,7 +3597,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -3602,10 +3606,10 @@
         <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -3625,13 +3629,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>39</v>
@@ -3641,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>39</v>
@@ -3653,16 +3657,16 @@
         <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3712,7 +3716,7 @@
         <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -3721,13 +3725,13 @@
         <v>38</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>39</v>
@@ -3744,13 +3748,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>39</v>
@@ -3760,7 +3764,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>39</v>
@@ -3772,16 +3776,16 @@
         <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3831,7 +3835,7 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -3840,13 +3844,13 @@
         <v>38</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>39</v>
@@ -3863,13 +3867,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>39</v>
@@ -3879,10 +3883,10 @@
         <v>37</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>39</v>
@@ -3891,13 +3895,13 @@
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3948,7 +3952,7 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -3960,7 +3964,7 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>39</v>
@@ -3980,13 +3984,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>39</v>
@@ -3996,10 +4000,10 @@
         <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>39</v>
@@ -4008,13 +4012,13 @@
         <v>39</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4065,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
@@ -4077,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -4097,14 +4101,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4117,25 +4121,25 @@
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>39</v>
@@ -4184,7 +4188,7 @@
         <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
@@ -4196,10 +4200,10 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -4216,10 +4220,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4227,13 +4231,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>39</v>
@@ -4242,17 +4246,17 @@
         <v>39</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>39</v>
@@ -4289,17 +4293,17 @@
         <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -4308,13 +4312,13 @@
         <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -4323,7 +4327,7 @@
         <v>39</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>39</v>
@@ -4331,10 +4335,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4345,7 +4349,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>39</v>
@@ -4357,13 +4361,13 @@
         <v>39</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4414,13 +4418,13 @@
         <v>39</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>39</v>
@@ -4429,7 +4433,7 @@
         <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -4446,14 +4450,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4472,16 +4476,16 @@
         <v>39</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4519,19 +4523,19 @@
         <v>39</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -4543,10 +4547,10 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -4563,13 +4567,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>39</v>
@@ -4579,10 +4583,10 @@
         <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>39</v>
@@ -4591,13 +4595,13 @@
         <v>39</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4648,7 +4652,7 @@
         <v>39</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -4660,7 +4664,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -4680,13 +4684,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>39</v>
@@ -4696,10 +4700,10 @@
         <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>39</v>
@@ -4708,13 +4712,13 @@
         <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4765,7 +4769,7 @@
         <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -4777,7 +4781,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -4797,10 +4801,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4811,31 +4815,31 @@
         <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>39</v>
@@ -4860,13 +4864,13 @@
         <v>39</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>39</v>
@@ -4884,22 +4888,22 @@
         <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -4908,7 +4912,7 @@
         <v>39</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>39</v>
@@ -4916,10 +4920,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4930,7 +4934,7 @@
         <v>37</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>39</v>
@@ -4939,22 +4943,22 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>39</v>
@@ -4979,13 +4983,13 @@
         <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>39</v>
@@ -5003,22 +5007,22 @@
         <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -5027,7 +5031,7 @@
         <v>39</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>39</v>
@@ -5035,10 +5039,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5046,10 +5050,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>39</v>
@@ -5058,22 +5062,22 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>39</v>
@@ -5086,7 +5090,7 @@
         <v>39</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>39</v>
@@ -5122,22 +5126,22 @@
         <v>39</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -5146,7 +5150,7 @@
         <v>39</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>39</v>
@@ -5154,10 +5158,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5165,10 +5169,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>39</v>
@@ -5177,19 +5181,19 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5203,7 +5207,7 @@
         <v>39</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>39</v>
@@ -5239,22 +5243,22 @@
         <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -5263,7 +5267,7 @@
         <v>39</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>39</v>
@@ -5271,10 +5275,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5285,7 +5289,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>39</v>
@@ -5294,16 +5298,16 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5354,22 +5358,22 @@
         <v>39</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>39</v>
@@ -5378,7 +5382,7 @@
         <v>39</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>39</v>
@@ -5386,10 +5390,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5400,7 +5404,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>39</v>
@@ -5409,19 +5413,19 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5471,22 +5475,22 @@
         <v>39</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -5495,7 +5499,7 @@
         <v>39</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>39</v>
@@ -5503,13 +5507,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>39</v>
@@ -5519,7 +5523,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>39</v>
@@ -5531,17 +5535,17 @@
         <v>39</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>39</v>
@@ -5590,7 +5594,7 @@
         <v>39</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
@@ -5599,13 +5603,13 @@
         <v>38</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
@@ -5614,7 +5618,7 @@
         <v>39</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>39</v>
@@ -5622,10 +5626,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5636,7 +5640,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>39</v>
@@ -5648,13 +5652,13 @@
         <v>39</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5705,13 +5709,13 @@
         <v>39</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>39</v>
@@ -5720,7 +5724,7 @@
         <v>39</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -5737,10 +5741,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5763,13 +5767,13 @@
         <v>39</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5808,19 +5812,19 @@
         <v>39</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
@@ -5832,7 +5836,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -5852,13 +5856,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>39</v>
@@ -5880,16 +5884,16 @@
         <v>39</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5939,7 +5943,7 @@
         <v>39</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
@@ -5951,7 +5955,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -5971,10 +5975,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5985,31 +5989,31 @@
         <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>39</v>
@@ -6034,13 +6038,13 @@
         <v>39</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>39</v>
@@ -6058,22 +6062,22 @@
         <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
@@ -6082,7 +6086,7 @@
         <v>39</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>39</v>
@@ -6090,10 +6094,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6101,10 +6105,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -6113,29 +6117,29 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>39</v>
@@ -6153,13 +6157,13 @@
         <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>39</v>
@@ -6177,22 +6181,22 @@
         <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -6201,7 +6205,7 @@
         <v>39</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>39</v>
@@ -6209,10 +6213,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6220,10 +6224,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
@@ -6232,22 +6236,22 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>39</v>
@@ -6260,7 +6264,7 @@
         <v>39</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>39</v>
@@ -6296,22 +6300,22 @@
         <v>39</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -6320,7 +6324,7 @@
         <v>39</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>39</v>
@@ -6328,10 +6332,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6339,10 +6343,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>39</v>
@@ -6351,19 +6355,19 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6377,7 +6381,7 @@
         <v>39</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>39</v>
@@ -6413,22 +6417,22 @@
         <v>39</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -6437,7 +6441,7 @@
         <v>39</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>39</v>
@@ -6445,10 +6449,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6459,7 +6463,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>39</v>
@@ -6468,16 +6472,16 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6528,22 +6532,22 @@
         <v>39</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -6552,7 +6556,7 @@
         <v>39</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>39</v>
@@ -6560,10 +6564,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6574,7 +6578,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>39</v>
@@ -6583,19 +6587,19 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6645,22 +6649,22 @@
         <v>39</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -6669,7 +6673,7 @@
         <v>39</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>39</v>
@@ -6677,10 +6681,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6691,103 +6695,103 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="J37" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="P37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>39</v>
@@ -6798,10 +6802,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6815,28 +6819,28 @@
         <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>39</v>
@@ -6885,7 +6889,7 @@
         <v>39</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
@@ -6897,19 +6901,19 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>39</v>
@@ -6917,10 +6921,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6931,7 +6935,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>39</v>
@@ -6943,13 +6947,13 @@
         <v>39</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7000,13 +7004,13 @@
         <v>39</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>39</v>
@@ -7015,7 +7019,7 @@
         <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -7032,14 +7036,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7058,16 +7062,16 @@
         <v>39</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7105,19 +7109,19 @@
         <v>39</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
@@ -7129,10 +7133,10 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -7149,13 +7153,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="B41" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="C41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>39</v>
@@ -7165,10 +7169,10 @@
         <v>37</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>39</v>
@@ -7177,13 +7181,13 @@
         <v>39</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7234,7 +7238,7 @@
         <v>39</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -7246,7 +7250,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -7266,10 +7270,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7280,31 +7284,31 @@
         <v>37</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>39</v>
@@ -7329,11 +7333,11 @@
         <v>39</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>39</v>
@@ -7351,22 +7355,22 @@
         <v>39</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -7375,7 +7379,7 @@
         <v>39</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>39</v>
@@ -7383,10 +7387,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7397,7 +7401,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>39</v>
@@ -7406,22 +7410,22 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>39</v>
@@ -7470,22 +7474,22 @@
         <v>39</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -7494,7 +7498,7 @@
         <v>39</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>39</v>
@@ -7502,21 +7506,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>39</v>
@@ -7525,19 +7529,19 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7587,22 +7591,22 @@
         <v>39</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -7611,7 +7615,7 @@
         <v>39</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>39</v>
@@ -7619,14 +7623,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7642,19 +7646,19 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7704,7 +7708,7 @@
         <v>39</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
@@ -7716,10 +7720,10 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -7728,7 +7732,7 @@
         <v>39</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>39</v>
@@ -7736,10 +7740,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7759,16 +7763,16 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7819,7 +7823,7 @@
         <v>39</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
@@ -7831,10 +7835,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -7843,7 +7847,7 @@
         <v>39</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>39</v>
@@ -7851,10 +7855,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7874,16 +7878,16 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7934,7 +7938,7 @@
         <v>39</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
@@ -7946,10 +7950,10 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -7958,7 +7962,7 @@
         <v>39</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>39</v>
@@ -7966,10 +7970,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7980,7 +7984,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>39</v>
@@ -7989,20 +7993,20 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>39</v>
@@ -8051,22 +8055,22 @@
         <v>39</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -8075,7 +8079,7 @@
         <v>39</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>39</v>
@@ -8083,10 +8087,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8100,28 +8104,28 @@
         <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>39</v>
@@ -8170,7 +8174,7 @@
         <v>39</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
@@ -8182,19 +8186,19 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>39</v>
@@ -8202,10 +8206,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8216,7 +8220,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>39</v>
@@ -8228,13 +8232,13 @@
         <v>39</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8285,13 +8289,13 @@
         <v>39</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>39</v>
@@ -8300,7 +8304,7 @@
         <v>39</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -8317,14 +8321,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8343,16 +8347,16 @@
         <v>39</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8390,19 +8394,19 @@
         <v>39</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
@@ -8414,10 +8418,10 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -8434,13 +8438,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="C52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>39</v>
@@ -8450,10 +8454,10 @@
         <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>39</v>
@@ -8462,13 +8466,13 @@
         <v>39</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8519,7 +8523,7 @@
         <v>39</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
@@ -8531,7 +8535,7 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
@@ -8551,10 +8555,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8562,10 +8566,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>39</v>
@@ -8574,16 +8578,16 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8610,11 +8614,11 @@
         <v>39</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>39</v>
@@ -8632,22 +8636,22 @@
         <v>39</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -8656,7 +8660,7 @@
         <v>39</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>39</v>
@@ -8664,10 +8668,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8675,10 +8679,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>39</v>
@@ -8687,22 +8691,22 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>39</v>
@@ -8751,22 +8755,22 @@
         <v>39</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -8775,7 +8779,7 @@
         <v>39</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>39</v>
@@ -8783,10 +8787,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8797,31 +8801,31 @@
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>39</v>
@@ -8846,11 +8850,11 @@
         <v>39</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>39</v>
@@ -8868,22 +8872,22 @@
         <v>39</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>39</v>
@@ -8892,7 +8896,7 @@
         <v>39</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>39</v>
@@ -8900,10 +8904,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8914,7 +8918,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>39</v>
@@ -8923,19 +8927,19 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8985,22 +8989,22 @@
         <v>39</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -9009,7 +9013,7 @@
         <v>39</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>39</v>
@@ -9017,10 +9021,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9031,7 +9035,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>39</v>
@@ -9040,16 +9044,16 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9100,22 +9104,22 @@
         <v>39</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -9124,7 +9128,7 @@
         <v>39</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>39</v>
@@ -9132,10 +9136,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9146,31 +9150,31 @@
         <v>37</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>39</v>
@@ -9195,13 +9199,13 @@
         <v>39</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>39</v>
@@ -9219,31 +9223,31 @@
         <v>39</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>39</v>
@@ -9251,10 +9255,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9265,7 +9269,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>39</v>
@@ -9277,13 +9281,13 @@
         <v>39</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9334,13 +9338,13 @@
         <v>39</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>39</v>
@@ -9366,10 +9370,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9392,13 +9396,13 @@
         <v>39</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9437,17 +9441,17 @@
         <v>39</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
@@ -9459,7 +9463,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -9479,13 +9483,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="B61" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="C61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>39</v>
@@ -9495,10 +9499,10 @@
         <v>37</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>39</v>
@@ -9507,13 +9511,13 @@
         <v>39</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9564,7 +9568,7 @@
         <v>39</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
@@ -9573,10 +9577,10 @@
         <v>38</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -9596,13 +9600,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>39</v>
@@ -9612,10 +9616,10 @@
         <v>37</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>39</v>
@@ -9624,13 +9628,13 @@
         <v>39</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9681,7 +9685,7 @@
         <v>39</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
@@ -9690,10 +9694,10 @@
         <v>38</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
@@ -9713,10 +9717,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9727,7 +9731,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>39</v>
@@ -9739,13 +9743,13 @@
         <v>39</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9796,13 +9800,13 @@
         <v>39</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>39</v>
@@ -9828,10 +9832,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9842,31 +9846,31 @@
         <v>37</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>39</v>
@@ -9915,42 +9919,42 @@
         <v>39</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9961,7 +9965,7 @@
         <v>37</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>39</v>
@@ -9973,13 +9977,13 @@
         <v>39</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10030,13 +10034,13 @@
         <v>39</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>39</v>
@@ -10062,10 +10066,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10088,13 +10092,13 @@
         <v>39</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10133,17 +10137,17 @@
         <v>39</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
@@ -10155,7 +10159,7 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
@@ -10175,13 +10179,13 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="B67" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="C67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>39</v>
@@ -10191,7 +10195,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>39</v>
@@ -10203,13 +10207,13 @@
         <v>39</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10260,7 +10264,7 @@
         <v>39</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
@@ -10269,10 +10273,10 @@
         <v>38</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
@@ -10292,13 +10296,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>39</v>
@@ -10308,10 +10312,10 @@
         <v>37</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>39</v>
@@ -10320,13 +10324,13 @@
         <v>39</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10377,7 +10381,7 @@
         <v>39</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
@@ -10386,10 +10390,10 @@
         <v>38</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
@@ -10409,10 +10413,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10423,7 +10427,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>39</v>
@@ -10435,13 +10439,13 @@
         <v>39</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10492,13 +10496,13 @@
         <v>39</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>39</v>
@@ -10524,10 +10528,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10538,31 +10542,31 @@
         <v>37</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>39</v>
@@ -10611,31 +10615,31 @@
         <v>39</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>39</v>
@@ -10643,10 +10647,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10657,7 +10661,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>39</v>
@@ -10669,13 +10673,13 @@
         <v>39</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10726,13 +10730,13 @@
         <v>39</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>39</v>
@@ -10758,10 +10762,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10784,13 +10788,13 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10829,17 +10833,17 @@
         <v>39</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
@@ -10851,7 +10855,7 @@
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>39</v>
@@ -10871,13 +10875,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="C73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>39</v>
@@ -10887,10 +10891,10 @@
         <v>37</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>39</v>
@@ -10899,13 +10903,13 @@
         <v>39</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10956,7 +10960,7 @@
         <v>39</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
@@ -10965,10 +10969,10 @@
         <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>39</v>
@@ -10988,13 +10992,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>39</v>
@@ -11004,10 +11008,10 @@
         <v>37</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>39</v>
@@ -11016,13 +11020,13 @@
         <v>39</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11073,7 +11077,7 @@
         <v>39</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
@@ -11082,10 +11086,10 @@
         <v>38</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
@@ -11105,13 +11109,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>39</v>
@@ -11121,10 +11125,10 @@
         <v>37</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>39</v>
@@ -11133,13 +11137,13 @@
         <v>39</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11190,7 +11194,7 @@
         <v>39</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>37</v>
@@ -11199,10 +11203,10 @@
         <v>38</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>39</v>
@@ -11222,10 +11226,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11236,7 +11240,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>39</v>
@@ -11248,13 +11252,13 @@
         <v>39</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11305,13 +11309,13 @@
         <v>39</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>39</v>
@@ -11337,10 +11341,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11354,28 +11358,28 @@
         <v>38</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>39</v>
@@ -11424,7 +11428,7 @@
         <v>39</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
@@ -11436,19 +11440,19 @@
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>39</v>
@@ -11456,10 +11460,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11470,7 +11474,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>39</v>
@@ -11482,13 +11486,13 @@
         <v>39</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11539,13 +11543,13 @@
         <v>39</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>39</v>
@@ -11554,7 +11558,7 @@
         <v>39</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
@@ -11571,10 +11575,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11597,13 +11601,13 @@
         <v>39</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11642,19 +11646,19 @@
         <v>39</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>37</v>
@@ -11666,7 +11670,7 @@
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>39</v>
@@ -11686,13 +11690,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="B80" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="C80" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>39</v>
@@ -11702,7 +11706,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>39</v>
@@ -11714,13 +11718,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11771,7 +11775,7 @@
         <v>39</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
@@ -11783,7 +11787,7 @@
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>39</v>
@@ -11803,13 +11807,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>39</v>
@@ -11819,7 +11823,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>39</v>
@@ -11831,16 +11835,16 @@
         <v>39</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11890,7 +11894,7 @@
         <v>39</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>37</v>
@@ -11902,7 +11906,7 @@
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>39</v>
@@ -11922,13 +11926,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>39</v>
@@ -11938,10 +11942,10 @@
         <v>37</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>39</v>
@@ -11950,13 +11954,13 @@
         <v>39</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12007,7 +12011,7 @@
         <v>39</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>37</v>
@@ -12019,7 +12023,7 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>39</v>
@@ -12039,10 +12043,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12053,31 +12057,31 @@
         <v>37</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>39</v>
@@ -12090,7 +12094,7 @@
         <v>39</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>39</v>
@@ -12102,13 +12106,13 @@
         <v>39</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>39</v>
@@ -12126,22 +12130,22 @@
         <v>39</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -12150,7 +12154,7 @@
         <v>39</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>39</v>
@@ -12158,10 +12162,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12172,7 +12176,7 @@
         <v>37</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>39</v>
@@ -12181,19 +12185,19 @@
         <v>39</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12207,7 +12211,7 @@
         <v>39</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>39</v>
@@ -12219,13 +12223,13 @@
         <v>39</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>39</v>
@@ -12243,22 +12247,22 @@
         <v>39</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -12267,7 +12271,7 @@
         <v>39</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>39</v>
@@ -12275,10 +12279,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12289,7 +12293,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>39</v>
@@ -12298,22 +12302,22 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>39</v>
@@ -12326,7 +12330,7 @@
         <v>39</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>39</v>
@@ -12362,22 +12366,22 @@
         <v>39</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -12386,7 +12390,7 @@
         <v>39</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>39</v>
@@ -12394,10 +12398,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12417,16 +12421,16 @@
         <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12441,7 +12445,7 @@
         <v>39</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>39</v>
@@ -12477,7 +12481,7 @@
         <v>39</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>37</v>
@@ -12489,10 +12493,10 @@
         <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -12501,7 +12505,7 @@
         <v>39</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>39</v>
@@ -12509,21 +12513,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>39</v>
@@ -12532,16 +12536,16 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12556,7 +12560,7 @@
         <v>39</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>39</v>
@@ -12592,22 +12596,22 @@
         <v>39</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -12616,7 +12620,7 @@
         <v>39</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>39</v>
@@ -12624,21 +12628,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>39</v>
@@ -12647,19 +12651,19 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12673,7 +12677,7 @@
         <v>39</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>39</v>
@@ -12709,22 +12713,22 @@
         <v>39</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -12733,7 +12737,7 @@
         <v>39</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>39</v>
@@ -12741,21 +12745,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>39</v>
@@ -12764,16 +12768,16 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12824,22 +12828,22 @@
         <v>39</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>39</v>
@@ -12848,7 +12852,7 @@
         <v>39</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>39</v>
@@ -12856,21 +12860,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>39</v>
@@ -12879,16 +12883,16 @@
         <v>39</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12903,7 +12907,7 @@
         <v>39</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>39</v>
@@ -12939,22 +12943,22 @@
         <v>39</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>39</v>
@@ -12963,7 +12967,7 @@
         <v>39</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>39</v>
@@ -12971,10 +12975,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12985,7 +12989,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>39</v>
@@ -12994,19 +12998,19 @@
         <v>39</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13056,22 +13060,22 @@
         <v>39</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>39</v>
@@ -13080,7 +13084,7 @@
         <v>39</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>39</v>
@@ -13088,10 +13092,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13102,7 +13106,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>39</v>
@@ -13111,20 +13115,20 @@
         <v>39</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>39</v>
@@ -13137,7 +13141,7 @@
         <v>39</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>39</v>
@@ -13173,22 +13177,22 @@
         <v>39</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>39</v>
@@ -13197,7 +13201,7 @@
         <v>39</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>39</v>
@@ -13205,10 +13209,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13219,7 +13223,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>39</v>
@@ -13231,17 +13235,17 @@
         <v>39</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>39</v>
@@ -13266,13 +13270,13 @@
         <v>39</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>39</v>
@@ -13290,31 +13294,31 @@
         <v>39</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>39</v>
@@ -13322,10 +13326,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13336,7 +13340,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>39</v>
@@ -13348,19 +13352,19 @@
         <v>39</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>39</v>
@@ -13409,31 +13413,31 @@
         <v>39</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>39</v>
@@ -13441,10 +13445,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13455,7 +13459,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>39</v>
@@ -13467,13 +13471,13 @@
         <v>39</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13524,13 +13528,13 @@
         <v>39</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>39</v>
@@ -13539,7 +13543,7 @@
         <v>39</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -13556,14 +13560,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13582,16 +13586,16 @@
         <v>39</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13629,19 +13633,19 @@
         <v>39</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>37</v>
@@ -13653,10 +13657,10 @@
         <v>39</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -13673,13 +13677,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="B97" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="C97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>39</v>
@@ -13689,10 +13693,10 @@
         <v>37</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>39</v>
@@ -13701,13 +13705,13 @@
         <v>39</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13758,7 +13762,7 @@
         <v>39</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>37</v>
@@ -13770,7 +13774,7 @@
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>39</v>
@@ -13790,13 +13794,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>39</v>
@@ -13806,10 +13810,10 @@
         <v>37</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>39</v>
@@ -13818,13 +13822,13 @@
         <v>39</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13875,7 +13879,7 @@
         <v>39</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>37</v>
@@ -13887,7 +13891,7 @@
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>39</v>
@@ -13907,10 +13911,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13933,19 +13937,19 @@
         <v>39</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>39</v>
@@ -13994,7 +13998,7 @@
         <v>39</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>37</v>
@@ -14006,19 +14010,19 @@
         <v>39</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>39</v>
@@ -14026,10 +14030,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14052,19 +14056,19 @@
         <v>39</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>39</v>
@@ -14113,7 +14117,7 @@
         <v>39</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>37</v>
@@ -14125,13 +14129,13 @@
         <v>39</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>39</v>
@@ -14145,10 +14149,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14159,7 +14163,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>39</v>
@@ -14171,13 +14175,13 @@
         <v>39</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14228,13 +14232,13 @@
         <v>39</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>39</v>
@@ -14243,7 +14247,7 @@
         <v>39</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>39</v>
@@ -14260,14 +14264,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14286,16 +14290,16 @@
         <v>39</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14345,7 +14349,7 @@
         <v>39</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>37</v>
@@ -14357,10 +14361,10 @@
         <v>39</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>39</v>
@@ -14377,14 +14381,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14397,25 +14401,25 @@
         <v>39</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>39</v>
@@ -14464,7 +14468,7 @@
         <v>39</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>37</v>
@@ -14476,10 +14480,10 @@
         <v>39</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>39</v>
@@ -14496,10 +14500,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14522,17 +14526,17 @@
         <v>39</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>39</v>
@@ -14557,13 +14561,13 @@
         <v>39</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>39</v>
@@ -14581,7 +14585,7 @@
         <v>39</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>37</v>
@@ -14593,19 +14597,19 @@
         <v>39</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>39</v>
@@ -14613,10 +14617,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14627,7 +14631,7 @@
         <v>37</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>39</v>
@@ -14639,17 +14643,17 @@
         <v>39</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>39</v>
@@ -14698,31 +14702,31 @@
         <v>39</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>39</v>
@@ -14730,10 +14734,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14756,19 +14760,19 @@
         <v>39</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>39</v>
@@ -14817,7 +14821,7 @@
         <v>39</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>37</v>
@@ -14829,19 +14833,19 @@
         <v>39</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>39</v>
@@ -14849,10 +14853,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14863,7 +14867,7 @@
         <v>37</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>39</v>
@@ -14875,17 +14879,17 @@
         <v>39</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>39</v>
@@ -14934,31 +14938,31 @@
         <v>39</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>39</v>
@@ -14966,10 +14970,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14980,7 +14984,7 @@
         <v>37</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>39</v>
@@ -14992,17 +14996,17 @@
         <v>39</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>39</v>
@@ -15027,13 +15031,13 @@
         <v>39</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>39</v>
@@ -15051,31 +15055,31 @@
         <v>39</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>39</v>
@@ -15083,10 +15087,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15097,7 +15101,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>39</v>
@@ -15109,17 +15113,17 @@
         <v>39</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>39</v>
@@ -15168,31 +15172,31 @@
         <v>39</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>39</v>
@@ -15200,10 +15204,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15214,7 +15218,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>39</v>
@@ -15226,13 +15230,13 @@
         <v>39</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15283,25 +15287,25 @@
         <v>39</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>39</v>
@@ -15315,10 +15319,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15341,19 +15345,19 @@
         <v>39</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>39</v>
@@ -15402,7 +15406,7 @@
         <v>39</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>37</v>
@@ -15414,13 +15418,13 @@
         <v>39</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>39</v>
@@ -15434,10 +15438,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15448,7 +15452,7 @@
         <v>37</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>39</v>
@@ -15460,13 +15464,13 @@
         <v>39</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15517,13 +15521,13 @@
         <v>39</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>39</v>
@@ -15532,7 +15536,7 @@
         <v>39</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>39</v>
@@ -15549,14 +15553,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15575,16 +15579,16 @@
         <v>39</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15634,7 +15638,7 @@
         <v>39</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>37</v>
@@ -15646,10 +15650,10 @@
         <v>39</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>39</v>
@@ -15666,14 +15670,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15686,25 +15690,25 @@
         <v>39</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>39</v>
@@ -15753,7 +15757,7 @@
         <v>39</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>37</v>
@@ -15765,10 +15769,10 @@
         <v>39</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>39</v>
@@ -15785,10 +15789,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15796,10 +15800,10 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>39</v>
@@ -15811,19 +15815,19 @@
         <v>39</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>39</v>
@@ -15848,13 +15852,13 @@
         <v>39</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>39</v>
@@ -15872,31 +15876,31 @@
         <v>39</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>39</v>
@@ -15904,10 +15908,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15918,7 +15922,7 @@
         <v>37</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>39</v>
@@ -15930,19 +15934,19 @@
         <v>39</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>39</v>
@@ -15991,31 +15995,31 @@
         <v>39</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>39</v>
@@ -16023,14 +16027,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16049,16 +16053,16 @@
         <v>39</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16108,7 +16112,7 @@
         <v>39</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>37</v>
@@ -16120,19 +16124,19 @@
         <v>39</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>39</v>
@@ -16140,10 +16144,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16154,7 +16158,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>39</v>
@@ -16163,22 +16167,22 @@
         <v>39</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>39</v>
@@ -16227,25 +16231,25 @@
         <v>39</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>39</v>
@@ -16259,10 +16263,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16276,28 +16280,28 @@
         <v>38</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>39</v>
@@ -16346,7 +16350,7 @@
         <v>39</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>37</v>
@@ -16358,13 +16362,13 @@
         <v>39</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>39</v>
@@ -16378,10 +16382,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16392,7 +16396,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>39</v>
@@ -16404,13 +16408,13 @@
         <v>39</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16461,13 +16465,13 @@
         <v>39</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>39</v>
@@ -16476,7 +16480,7 @@
         <v>39</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>39</v>
@@ -16493,14 +16497,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16519,16 +16523,16 @@
         <v>39</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16578,7 +16582,7 @@
         <v>39</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>37</v>
@@ -16590,10 +16594,10 @@
         <v>39</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>39</v>
@@ -16610,14 +16614,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16630,25 +16634,25 @@
         <v>39</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>39</v>
@@ -16697,7 +16701,7 @@
         <v>39</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>37</v>
@@ -16709,10 +16713,10 @@
         <v>39</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>39</v>
@@ -16729,10 +16733,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16740,10 +16744,10 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>39</v>
@@ -16752,19 +16756,19 @@
         <v>39</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16814,31 +16818,31 @@
         <v>39</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>39</v>
@@ -16846,10 +16850,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16857,10 +16861,10 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>39</v>
@@ -16869,16 +16873,16 @@
         <v>39</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16905,13 +16909,13 @@
         <v>39</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>39</v>
@@ -16929,25 +16933,25 @@
         <v>39</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="723">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -323,10 +323,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Patient.implicitRules</t>
   </si>
   <si>
@@ -346,6 +353,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Patient.language</t>
   </si>
   <si>
@@ -423,26 +433,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -469,10 +486,6 @@
     <t>A code classifying the person's aboriginal identity</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Patient.extension:aboriginalidentityindicator</t>
   </si>
   <si>
@@ -568,10 +581,6 @@
     <t>Patient.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -579,9 +588,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -608,10 +614,16 @@
 </t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
   </si>
   <si>
     <t>Patient.identifier.id</t>
@@ -630,19 +642,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -808,7 +811,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -836,6 +847,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -846,6 +861,12 @@
   </si>
   <si>
     <t>JHN</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>Patient.identifier:JHN.id</t>
@@ -1090,6 +1111,9 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>HumanName.prefix</t>
   </si>
   <si>
@@ -1157,6 +1181,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -1190,8 +1218,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -1316,6 +1344,12 @@
   </si>
   <si>
     <t>Patient.gender.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Patient.gender.extension:genderEffectiveDates</t>
@@ -1781,6 +1815,9 @@
     <t>This field contains a patient's most recent marital (civil) status.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
@@ -1861,6 +1898,10 @@
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
   </si>
   <si>
@@ -1949,6 +1990,9 @@
     <t>A name associated with the contact person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -1979,6 +2023,9 @@
     <t>Address for the contact person.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -2006,11 +2053,14 @@
     <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
-    <t xml:space="preserve">pat-1
-</t>
+    <t>ele-1
+pat-1</t>
   </si>
   <si>
     <t>scoper</t>
@@ -2029,6 +2079,9 @@
   </si>
   <si>
     <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -2198,9 +2251,6 @@
   </si>
   <si>
     <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>PID-3, MRG-1</t>
@@ -3038,13 +3088,13 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>80</v>
@@ -3061,10 +3111,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -3087,16 +3137,16 @@
         <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -3146,7 +3196,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -3155,13 +3205,13 @@
         <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>80</v>
@@ -3178,10 +3228,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3204,16 +3254,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3239,13 +3289,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -3263,7 +3313,7 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -3272,13 +3322,13 @@
         <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>80</v>
@@ -3295,14 +3345,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3321,16 +3371,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3380,7 +3430,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -3389,13 +3439,13 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -3412,14 +3462,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3438,16 +3488,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3497,7 +3547,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -3512,7 +3562,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -3529,14 +3579,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3555,15 +3605,17 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -3600,17 +3652,19 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3619,13 +3673,13 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -3642,16 +3696,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3670,15 +3724,17 @@
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -3727,7 +3783,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3736,13 +3792,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -3759,16 +3815,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3787,16 +3843,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3846,7 +3902,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3855,13 +3911,13 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
@@ -3878,16 +3934,16 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3906,16 +3962,16 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3965,7 +4021,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3974,13 +4030,13 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -3997,16 +4053,16 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -4025,16 +4081,16 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4084,7 +4140,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -4093,13 +4149,13 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
@@ -4116,13 +4172,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>80</v>
@@ -4144,13 +4200,13 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4201,7 +4257,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4210,10 +4266,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -4233,13 +4289,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>80</v>
@@ -4261,13 +4317,13 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4318,7 +4374,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4327,10 +4383,10 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4350,14 +4406,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4376,19 +4432,19 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4425,19 +4481,19 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4446,13 +4502,13 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -4469,10 +4525,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4492,20 +4548,20 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4542,17 +4598,17 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4561,22 +4617,22 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4584,10 +4640,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4610,13 +4666,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4667,7 +4723,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4682,7 +4738,7 @@
         <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -4699,14 +4755,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4725,16 +4781,16 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4772,19 +4828,19 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4793,13 +4849,13 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4816,13 +4872,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
@@ -4844,13 +4900,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4901,7 +4957,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4910,10 +4966,10 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4933,13 +4989,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
@@ -4961,13 +5017,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5018,7 +5074,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -5027,10 +5083,10 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -5050,10 +5106,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5076,19 +5132,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -5113,13 +5169,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -5137,7 +5193,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -5146,13 +5202,13 @@
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -5161,7 +5217,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5169,10 +5225,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5195,19 +5251,19 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -5232,13 +5288,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -5256,7 +5312,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5265,13 +5321,13 @@
         <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -5280,7 +5336,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5288,10 +5344,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5314,19 +5370,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5339,7 +5395,7 @@
         <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>80</v>
@@ -5375,7 +5431,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5384,13 +5440,13 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -5399,7 +5455,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5407,10 +5463,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5433,16 +5489,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5456,7 +5512,7 @@
         <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>80</v>
@@ -5492,7 +5548,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5501,13 +5557,13 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -5516,7 +5572,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5524,10 +5580,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5550,15 +5606,17 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5607,7 +5665,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5616,13 +5674,13 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -5631,7 +5689,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5639,10 +5697,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5665,16 +5723,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5724,7 +5782,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5733,13 +5791,13 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5748,7 +5806,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5756,13 +5814,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>80</v>
@@ -5784,17 +5842,17 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5843,7 +5901,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5852,13 +5910,13 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5867,7 +5925,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5875,10 +5933,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5901,13 +5959,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5958,7 +6016,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5973,7 +6031,7 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5990,14 +6048,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -6016,15 +6074,17 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -6061,19 +6121,19 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -6082,13 +6142,13 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -6105,23 +6165,23 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -6133,16 +6193,16 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6192,7 +6252,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6201,13 +6261,13 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -6224,10 +6284,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6250,19 +6310,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6287,13 +6347,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -6311,7 +6371,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6320,13 +6380,13 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -6335,7 +6395,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6343,10 +6403,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6369,26 +6429,26 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>80</v>
@@ -6406,13 +6466,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -6430,7 +6490,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6439,13 +6499,13 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -6454,7 +6514,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6462,10 +6522,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6488,19 +6548,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6513,7 +6573,7 @@
         <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>80</v>
@@ -6549,7 +6609,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6558,13 +6618,13 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -6573,7 +6633,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6581,10 +6641,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6607,16 +6667,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6630,7 +6690,7 @@
         <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>80</v>
@@ -6666,7 +6726,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6675,13 +6735,13 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6690,7 +6750,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6698,10 +6758,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6724,15 +6784,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6781,7 +6843,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6790,13 +6852,13 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6805,7 +6867,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6813,10 +6875,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6839,16 +6901,16 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6898,7 +6960,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6907,13 +6969,13 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6922,7 +6984,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6930,10 +6992,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6956,70 +7018,70 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -7028,19 +7090,19 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -7051,10 +7113,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7077,19 +7139,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -7138,7 +7200,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7147,22 +7209,22 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7170,10 +7232,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7196,13 +7258,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7253,7 +7315,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7268,7 +7330,7 @@
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -7285,14 +7347,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7311,16 +7373,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7358,19 +7420,19 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7379,13 +7441,13 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7402,13 +7464,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
@@ -7430,13 +7492,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7487,7 +7549,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7496,10 +7558,10 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7519,10 +7581,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7545,19 +7607,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7582,11 +7644,11 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7604,7 +7666,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7613,13 +7675,13 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7628,7 +7690,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7636,10 +7698,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7662,19 +7724,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7723,7 +7785,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7732,13 +7794,13 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7747,7 +7809,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7755,14 +7817,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7781,16 +7843,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7840,7 +7902,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7849,13 +7911,13 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7864,7 +7926,7 @@
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7872,14 +7934,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7898,16 +7960,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7957,7 +8019,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7966,13 +8028,13 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7981,7 +8043,7 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7989,10 +8051,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8015,15 +8077,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -8072,7 +8136,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8081,13 +8145,13 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -8096,7 +8160,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8104,10 +8168,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8130,15 +8194,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8187,7 +8253,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8196,13 +8262,13 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -8211,7 +8277,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8219,10 +8285,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8245,17 +8311,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8304,7 +8372,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8313,13 +8381,13 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -8328,7 +8396,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8336,10 +8404,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8362,19 +8430,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8423,7 +8491,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8432,22 +8500,22 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8455,10 +8523,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8481,13 +8549,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8538,7 +8606,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8553,7 +8621,7 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -8570,14 +8638,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8596,16 +8664,16 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8643,19 +8711,19 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8664,13 +8732,13 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8687,13 +8755,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>80</v>
@@ -8715,13 +8783,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8772,7 +8840,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8781,10 +8849,10 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8804,10 +8872,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8830,15 +8898,17 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8863,11 +8933,11 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8885,7 +8955,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8894,13 +8964,13 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8909,7 +8979,7 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8917,10 +8987,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8943,19 +9013,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9004,7 +9074,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9013,13 +9083,13 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -9028,7 +9098,7 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -9036,10 +9106,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9062,19 +9132,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9099,11 +9169,11 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -9121,7 +9191,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9130,13 +9200,13 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -9145,7 +9215,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -9153,10 +9223,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9179,16 +9249,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9238,7 +9308,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9247,13 +9317,13 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -9262,7 +9332,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9270,10 +9340,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9296,15 +9366,17 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9353,7 +9425,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9362,13 +9434,13 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -9377,7 +9449,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9385,10 +9457,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9411,19 +9483,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9448,13 +9520,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9472,7 +9544,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9481,22 +9553,22 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9504,10 +9576,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9530,13 +9602,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9587,7 +9659,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9619,10 +9691,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9645,13 +9717,13 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9690,17 +9762,17 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9712,7 +9784,7 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -9732,13 +9804,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
@@ -9760,13 +9832,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9817,7 +9889,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9826,10 +9898,10 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9849,13 +9921,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>80</v>
@@ -9877,13 +9949,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9934,7 +10006,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9943,10 +10015,10 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -9966,10 +10038,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9992,13 +10064,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10049,7 +10121,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10081,10 +10153,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10107,19 +10179,19 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10168,7 +10240,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10177,33 +10249,33 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10226,13 +10298,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10283,7 +10355,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10315,10 +10387,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10341,13 +10413,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10386,17 +10458,17 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10408,7 +10480,7 @@
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10428,13 +10500,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>80</v>
@@ -10456,13 +10528,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10513,7 +10585,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10522,10 +10594,10 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10545,13 +10617,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>80</v>
@@ -10573,13 +10645,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10630,7 +10702,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10639,10 +10711,10 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10662,10 +10734,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10688,13 +10760,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10745,7 +10817,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10777,10 +10849,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10803,19 +10875,19 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10864,7 +10936,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10873,22 +10945,22 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10896,10 +10968,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10922,13 +10994,13 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10979,7 +11051,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11011,10 +11083,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11037,13 +11109,13 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11082,17 +11154,17 @@
         <v>80</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11104,7 +11176,7 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -11124,13 +11196,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>80</v>
@@ -11152,13 +11224,13 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11209,7 +11281,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11218,10 +11290,10 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11241,13 +11313,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>80</v>
@@ -11269,13 +11341,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11326,7 +11398,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11335,10 +11407,10 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11358,13 +11430,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>80</v>
@@ -11386,13 +11458,13 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11443,7 +11515,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11452,10 +11524,10 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11475,10 +11547,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11501,13 +11573,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11558,7 +11630,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11590,10 +11662,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11616,19 +11688,19 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11677,7 +11749,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11686,22 +11758,22 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11709,10 +11781,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11735,13 +11807,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11792,7 +11864,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11807,7 +11879,7 @@
         <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -11824,14 +11896,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11850,15 +11922,17 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11895,19 +11969,19 @@
         <v>80</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11916,13 +11990,13 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
@@ -11939,16 +12013,16 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11967,15 +12041,17 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12024,7 +12100,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12033,13 +12109,13 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -12056,16 +12132,16 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12084,16 +12160,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12143,7 +12219,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12152,13 +12228,13 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -12175,13 +12251,13 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>80</v>
@@ -12203,13 +12279,13 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12260,7 +12336,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12269,10 +12345,10 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -12292,10 +12368,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12318,19 +12394,19 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12343,7 +12419,7 @@
         <v>80</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>80</v>
@@ -12355,13 +12431,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -12379,7 +12455,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12388,13 +12464,13 @@
         <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>80</v>
@@ -12403,7 +12479,7 @@
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12411,10 +12487,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12437,16 +12513,16 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12460,7 +12536,7 @@
         <v>80</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>80</v>
@@ -12472,13 +12548,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12496,7 +12572,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12505,13 +12581,13 @@
         <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
@@ -12520,7 +12596,7 @@
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12528,10 +12604,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12554,19 +12630,19 @@
         <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12579,7 +12655,7 @@
         <v>80</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>80</v>
@@ -12615,7 +12691,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12624,13 +12700,13 @@
         <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
@@ -12639,7 +12715,7 @@
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12647,10 +12723,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12673,15 +12749,17 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12694,7 +12772,7 @@
         <v>80</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>80</v>
@@ -12730,7 +12808,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12739,13 +12817,13 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
@@ -12754,7 +12832,7 @@
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12762,14 +12840,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12788,15 +12866,17 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12809,7 +12889,7 @@
         <v>80</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>80</v>
@@ -12845,7 +12925,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12854,13 +12934,13 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -12869,7 +12949,7 @@
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12877,14 +12957,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12903,16 +12983,16 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12926,7 +13006,7 @@
         <v>80</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>80</v>
@@ -12962,7 +13042,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12971,13 +13051,13 @@
         <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -12986,7 +13066,7 @@
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -12994,14 +13074,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13020,15 +13100,17 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13077,7 +13159,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13086,13 +13168,13 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -13101,7 +13183,7 @@
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13109,14 +13191,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13135,15 +13217,17 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13156,7 +13240,7 @@
         <v>80</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>80</v>
@@ -13192,7 +13276,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13201,13 +13285,13 @@
         <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
@@ -13216,7 +13300,7 @@
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13224,10 +13308,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13250,16 +13334,16 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13309,7 +13393,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13318,13 +13402,13 @@
         <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
@@ -13333,7 +13417,7 @@
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13341,10 +13425,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13367,17 +13451,19 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13390,7 +13476,7 @@
         <v>80</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>80</v>
@@ -13426,7 +13512,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13435,13 +13521,13 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
@@ -13450,7 +13536,7 @@
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13458,10 +13544,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13484,17 +13570,19 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O94" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13519,13 +13607,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13543,7 +13631,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13552,22 +13640,22 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13575,10 +13663,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13601,19 +13689,19 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13662,7 +13750,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13671,22 +13759,22 @@
         <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13694,10 +13782,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13720,13 +13808,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13777,7 +13865,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13792,7 +13880,7 @@
         <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
@@ -13809,14 +13897,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13835,16 +13923,16 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13882,19 +13970,19 @@
         <v>80</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13906,10 +13994,10 @@
         <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
@@ -13926,13 +14014,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>80</v>
@@ -13954,13 +14042,13 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14011,7 +14099,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14023,7 +14111,7 @@
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
@@ -14043,13 +14131,13 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>80</v>
@@ -14071,13 +14159,13 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14128,7 +14216,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14140,7 +14228,7 @@
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>80</v>
@@ -14160,10 +14248,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14186,19 +14274,19 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14247,7 +14335,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14256,22 +14344,22 @@
         <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>100</v>
+        <v>603</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14279,10 +14367,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14305,19 +14393,19 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>80</v>
@@ -14366,7 +14454,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14375,16 +14463,16 @@
         <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
@@ -14398,10 +14486,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14424,13 +14512,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14481,7 +14569,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14496,7 +14584,7 @@
         <v>80</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>80</v>
@@ -14513,14 +14601,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14539,16 +14627,16 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14586,19 +14674,19 @@
         <v>80</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14607,13 +14695,13 @@
         <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>80</v>
@@ -14630,14 +14718,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14656,19 +14744,19 @@
         <v>89</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14717,7 +14805,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14726,13 +14814,13 @@
         <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>80</v>
@@ -14749,10 +14837,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14775,17 +14863,19 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O105" t="s" s="2">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -14810,13 +14900,13 @@
         <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
@@ -14834,7 +14924,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14843,22 +14933,22 @@
         <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
@@ -14866,10 +14956,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14892,17 +14982,19 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>632</v>
+      </c>
       <c r="O106" t="s" s="2">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -14951,7 +15043,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14960,22 +15052,22 @@
         <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>80</v>
@@ -14983,10 +15075,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15009,19 +15101,19 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15070,7 +15162,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15079,22 +15171,22 @@
         <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>
@@ -15102,10 +15194,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15128,17 +15220,19 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="O108" t="s" s="2">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
@@ -15187,7 +15281,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15196,22 +15290,22 @@
         <v>88</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>80</v>
@@ -15219,10 +15313,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15245,17 +15339,19 @@
         <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O109" t="s" s="2">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15280,13 +15376,13 @@
         <v>80</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -15304,7 +15400,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15313,22 +15409,22 @@
         <v>88</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>80</v>
@@ -15336,10 +15432,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15362,17 +15458,19 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>653</v>
+      </c>
       <c r="O110" t="s" s="2">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15421,7 +15519,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -15430,22 +15528,22 @@
         <v>88</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>80</v>
@@ -15453,10 +15551,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15479,15 +15577,17 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>80</v>
@@ -15536,7 +15636,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -15545,22 +15645,22 @@
         <v>88</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>80</v>
+        <v>662</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>80</v>
@@ -15568,10 +15668,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15594,19 +15694,19 @@
         <v>80</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>80</v>
@@ -15655,7 +15755,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15664,16 +15764,16 @@
         <v>79</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>80</v>
@@ -15687,10 +15787,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15713,13 +15813,13 @@
         <v>80</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15770,7 +15870,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15785,7 +15885,7 @@
         <v>80</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>80</v>
@@ -15802,14 +15902,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15828,16 +15928,16 @@
         <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15875,19 +15975,19 @@
         <v>80</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC114" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -15896,13 +15996,13 @@
         <v>79</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>80</v>
@@ -15919,14 +16019,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15945,19 +16045,19 @@
         <v>89</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>80</v>
@@ -16006,7 +16106,7 @@
         <v>80</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -16015,13 +16115,13 @@
         <v>79</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>80</v>
@@ -16038,10 +16138,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16064,19 +16164,19 @@
         <v>80</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>80</v>
@@ -16101,13 +16201,13 @@
         <v>80</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>80</v>
@@ -16125,7 +16225,7 @@
         <v>80</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>88</v>
@@ -16134,22 +16234,22 @@
         <v>88</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>80</v>
@@ -16157,10 +16257,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16183,19 +16283,19 @@
         <v>80</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>80</v>
@@ -16244,7 +16344,7 @@
         <v>80</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -16253,22 +16353,22 @@
         <v>88</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>80</v>
@@ -16276,14 +16376,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16302,16 +16402,16 @@
         <v>80</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16361,7 +16461,7 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -16370,22 +16470,22 @@
         <v>79</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>80</v>
@@ -16393,10 +16493,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16419,19 +16519,19 @@
         <v>89</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>80</v>
@@ -16480,7 +16580,7 @@
         <v>80</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -16489,16 +16589,16 @@
         <v>88</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>80</v>
@@ -16512,10 +16612,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16538,19 +16638,19 @@
         <v>89</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>80</v>
@@ -16599,7 +16699,7 @@
         <v>80</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -16608,16 +16708,16 @@
         <v>79</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>80</v>
@@ -16631,10 +16731,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16657,13 +16757,13 @@
         <v>80</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16714,7 +16814,7 @@
         <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -16729,7 +16829,7 @@
         <v>80</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>80</v>
@@ -16746,14 +16846,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16772,16 +16872,16 @@
         <v>80</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -16819,19 +16919,19 @@
         <v>80</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC122" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -16840,13 +16940,13 @@
         <v>79</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>80</v>
@@ -16863,14 +16963,14 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -16889,19 +16989,19 @@
         <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>80</v>
@@ -16950,7 +17050,7 @@
         <v>80</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -16959,13 +17059,13 @@
         <v>79</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>80</v>
@@ -16982,10 +17082,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17008,16 +17108,16 @@
         <v>89</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17067,7 +17167,7 @@
         <v>80</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>88</v>
@@ -17076,22 +17176,22 @@
         <v>88</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>701</v>
+        <v>190</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>80</v>
@@ -17099,10 +17199,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17125,15 +17225,17 @@
         <v>89</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>720</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>80</v>
@@ -17158,13 +17260,13 @@
         <v>80</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>80</v>
@@ -17182,7 +17284,7 @@
         <v>80</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>88</v>
@@ -17191,16 +17293,16 @@
         <v>88</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-patient.xlsx
+++ b/StructureDefinition-bc-update-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
